--- a/data/Afghanistan interventions.xlsx
+++ b/data/Afghanistan interventions.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="18" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$C$1:$J$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$B$1:$I$30</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -27,7 +27,7 @@
     <author>cliffk</author>
   </authors>
   <commentList>
-    <comment ref="F8" authorId="0">
+    <comment ref="E8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F31" authorId="0">
+    <comment ref="E31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -76,32 +76,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
   <si>
     <t>Community</t>
   </si>
   <si>
-    <t>First-level Hospital</t>
-  </si>
-  <si>
     <t>Drainage of superficial abscess</t>
   </si>
   <si>
     <t>Appendectomy</t>
   </si>
   <si>
-    <t>Health Center</t>
-  </si>
-  <si>
     <t>PMTCT of HIV (Option B+) and syphilis</t>
   </si>
   <si>
     <t>Medical management of acute heart failure</t>
   </si>
   <si>
-    <t>Health Center*</t>
-  </si>
-  <si>
     <t>Pneumococcus vaccination</t>
   </si>
   <si>
@@ -201,9 +192,6 @@
     <t>Short name</t>
   </si>
   <si>
-    <t>No.</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
@@ -295,6 +283,12 @@
   </si>
   <si>
     <t>Dietary iron deficiency: 0.8; Other nutritional deficiencies: 0.5</t>
+  </si>
+  <si>
+    <t>Health center</t>
+  </si>
+  <si>
+    <t>First-level hospital</t>
   </si>
 </sst>
 </file>
@@ -305,7 +299,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -338,25 +332,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -380,6 +355,12 @@
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -886,59 +867,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="445" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="445" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="445" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="445" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="445" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="445" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="445" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="445" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="1" xfId="445" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="2" borderId="1" xfId="445" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="445" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="445" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="445" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="445" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="470">
     <cellStyle name="Comma" xfId="445" builtinId="3"/>
@@ -1412,42 +1380,66 @@
     <cellStyle name="Hyperlink" xfId="468" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="13">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1461,7 +1453,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -1472,7 +1464,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1486,18 +1478,17 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1511,7 +1502,28 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -1521,7 +1533,47 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1535,7 +1587,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -1545,216 +1597,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1801,8 +1644,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
     <tableStyle name="Table Style 1" pivot="0" count="2">
-      <tableStyleElement type="headerRow" dxfId="23"/>
-      <tableStyleElement type="firstRowStripe" dxfId="22"/>
+      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1826,22 +1669,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J31" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:J31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I31" totalsRowShown="0" headerRowDxfId="10" dataDxfId="0">
+  <autoFilter ref="A1:I31"/>
   <sortState ref="A2:K31">
-    <sortCondition ref="C1:C31"/>
+    <sortCondition ref="B1:B31"/>
   </sortState>
-  <tableColumns count="10">
-    <tableColumn id="1" name="No." dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="27" name="Active" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="3" name="Short name" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="4" name="Platform" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="5" name="Causes of burden (max coverage)" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="11" name="ICER" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Comma"/>
-    <tableColumn id="12" name="Unit cost" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Comma"/>
-    <tableColumn id="13" name="Spending" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="14" name="FRP" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="15" name="Equity" dataDxfId="1" totalsRowDxfId="0"/>
+  <tableColumns count="9">
+    <tableColumn id="27" name="Active" dataDxfId="9"/>
+    <tableColumn id="3" name="Short name" dataDxfId="8"/>
+    <tableColumn id="4" name="Platform" dataDxfId="7"/>
+    <tableColumn id="5" name="Causes of burden (max coverage)" dataDxfId="6"/>
+    <tableColumn id="11" name="ICER" dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="12" name="Unit cost" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="13" name="Spending" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="14" name="FRP" dataDxfId="2"/>
+    <tableColumn id="15" name="Equity" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2102,7 +1944,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2110,1017 +1952,923 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="73.75" style="7" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="2"/>
+    <col min="1" max="1" width="8.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="100.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="12">
+        <v>576</v>
+      </c>
+      <c r="F2" s="13">
+        <v>1.6278196387318138</v>
+      </c>
+      <c r="G2" s="14">
+        <v>2087282.1552937152</v>
+      </c>
+      <c r="H2" s="15">
+        <v>3</v>
+      </c>
+      <c r="I2" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="10">
+        <v>11</v>
+      </c>
+      <c r="F3" s="13">
+        <v>1.2581054540850005</v>
+      </c>
+      <c r="G3" s="14">
+        <v>547.48769225846445</v>
+      </c>
+      <c r="H3" s="10">
+        <v>6</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="12">
+        <v>5488</v>
+      </c>
+      <c r="F4" s="13">
+        <v>19.359239841281244</v>
+      </c>
+      <c r="G4" s="16">
+        <v>190292.44749432051</v>
+      </c>
+      <c r="H4" s="10">
+        <v>3</v>
+      </c>
+      <c r="I4" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="12">
+        <v>13</v>
+      </c>
+      <c r="F5" s="13">
+        <v>1.7790273640275014</v>
+      </c>
+      <c r="G5" s="14">
+        <v>16991.35747001816</v>
+      </c>
+      <c r="H5" s="10">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="12">
+        <v>20</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1.2581054540850005</v>
+      </c>
+      <c r="G6" s="14">
+        <v>165691.53429320332</v>
+      </c>
+      <c r="H6" s="10">
+        <v>3</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>1</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="12">
+        <v>31</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1.344397990175465</v>
+      </c>
+      <c r="G7" s="14">
+        <v>8235.4710468978228</v>
+      </c>
+      <c r="H7" s="10">
+        <v>3</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>1</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="12">
+        <v>52</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1.6708715227994324</v>
+      </c>
+      <c r="G8" s="14">
+        <v>3963955.5316596483</v>
+      </c>
+      <c r="H8" s="10">
+        <v>3</v>
+      </c>
+      <c r="I8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="12">
+        <v>7</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.78435308805910964</v>
+      </c>
+      <c r="G9" s="14">
+        <v>2249.183019582937</v>
+      </c>
+      <c r="H9" s="10">
+        <v>5</v>
+      </c>
+      <c r="I9" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="10">
+        <v>95</v>
+      </c>
+      <c r="F10" s="13">
+        <v>216.54621737662529</v>
+      </c>
+      <c r="G10" s="14">
+        <v>16215973.791515743</v>
+      </c>
+      <c r="H10" s="10">
+        <v>3</v>
+      </c>
+      <c r="I10" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>1</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="12">
+        <v>115</v>
+      </c>
+      <c r="F11" s="13">
+        <v>21.299447386134773</v>
+      </c>
+      <c r="G11" s="14">
+        <v>325775.66857809632</v>
+      </c>
+      <c r="H11" s="10">
+        <v>4</v>
+      </c>
+      <c r="I11" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>1</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1186</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.248529494536535</v>
+      </c>
+      <c r="G12" s="14">
+        <v>357.06339814683844</v>
+      </c>
+      <c r="H12" s="10">
+        <v>2</v>
+      </c>
+      <c r="I12" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>1</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="12">
+        <v>380</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1.2581054540850005</v>
+      </c>
+      <c r="G13" s="14">
+        <v>87661.259262234264</v>
+      </c>
+      <c r="H13" s="10">
+        <v>2</v>
+      </c>
+      <c r="I13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>1</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="12">
+        <v>285</v>
+      </c>
+      <c r="F14" s="13">
+        <v>3.5904528499278299</v>
+      </c>
+      <c r="G14" s="14">
+        <v>12089034.749908645</v>
+      </c>
+      <c r="H14" s="10">
+        <v>2</v>
+      </c>
+      <c r="I14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>1</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="12">
+        <v>2040</v>
+      </c>
+      <c r="F15" s="13">
+        <v>12.313176410983239</v>
+      </c>
+      <c r="G15" s="14">
+        <v>28689.751829313835</v>
+      </c>
+      <c r="H15" s="10">
+        <v>6</v>
+      </c>
+      <c r="I15" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>1</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="12">
+        <v>14</v>
+      </c>
+      <c r="F16" s="13">
+        <v>48.128585671910834</v>
+      </c>
+      <c r="G16" s="14">
+        <v>19671.661741774085</v>
+      </c>
+      <c r="H16" s="15">
+        <v>4</v>
+      </c>
+      <c r="I16" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>1</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="12">
+        <v>63</v>
+      </c>
+      <c r="F17" s="13">
+        <v>7.4900031183195228</v>
+      </c>
+      <c r="G17" s="14">
+        <v>17032516.326998692</v>
+      </c>
+      <c r="H17" s="10">
+        <v>3</v>
+      </c>
+      <c r="I17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>1</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="10">
+        <v>13</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1.2581054540850005</v>
+      </c>
+      <c r="G18" s="14">
+        <v>36317.200212839991</v>
+      </c>
+      <c r="H18" s="10">
+        <v>5</v>
+      </c>
+      <c r="I18" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>1</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="12">
+        <v>4393</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.78435308805910964</v>
+      </c>
+      <c r="G19" s="14">
+        <v>31255.550710902706</v>
+      </c>
+      <c r="H19" s="10">
+        <v>4</v>
+      </c>
+      <c r="I19" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>1</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="10">
+        <v>440.3</v>
+      </c>
+      <c r="F20" s="13">
+        <v>1.1496900605005875</v>
+      </c>
+      <c r="G20" s="14">
+        <v>864625.4042493247</v>
+      </c>
+      <c r="H20" s="10">
+        <v>5</v>
+      </c>
+      <c r="I20" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>1</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="15" t="s">
+      <c r="E21" s="12">
+        <v>250</v>
+      </c>
+      <c r="F21" s="13">
+        <v>254.60902660160465</v>
+      </c>
+      <c r="G21" s="14">
+        <v>3533205.6138780504</v>
+      </c>
+      <c r="H21" s="10">
+        <v>5</v>
+      </c>
+      <c r="I21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>1</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="10">
+        <v>103</v>
+      </c>
+      <c r="F22" s="13">
+        <v>1.2581054540850005</v>
+      </c>
+      <c r="G22" s="14">
+        <v>17964.950282769361</v>
+      </c>
+      <c r="H22" s="10">
+        <v>2</v>
+      </c>
+      <c r="I22" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>1</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E23" s="12">
+        <v>13</v>
+      </c>
+      <c r="F23" s="13">
+        <v>2.0230000000000001E-2</v>
+      </c>
+      <c r="G23" s="14">
+        <v>193.21521892743283</v>
+      </c>
+      <c r="H23" s="10">
+        <v>2</v>
+      </c>
+      <c r="I23" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>1</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="12">
+        <v>11484</v>
+      </c>
+      <c r="F24" s="13">
+        <v>21.299447386134773</v>
+      </c>
+      <c r="G24" s="14">
+        <v>9111068.3478771001</v>
+      </c>
+      <c r="H24" s="10">
+        <v>2</v>
+      </c>
+      <c r="I24" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>1</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="12">
+        <v>566</v>
+      </c>
+      <c r="F25" s="13">
+        <v>1.2581054540850005</v>
+      </c>
+      <c r="G25" s="14">
+        <v>284844.82375269063</v>
+      </c>
+      <c r="H25" s="10">
+        <v>3</v>
+      </c>
+      <c r="I25" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>1</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="10">
+        <v>437</v>
+      </c>
+      <c r="F26" s="13">
+        <v>21.299447386134773</v>
+      </c>
+      <c r="G26" s="14">
+        <v>10246902.750900846</v>
+      </c>
+      <c r="H26" s="10">
+        <v>3</v>
+      </c>
+      <c r="I26" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>1</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="12">
+        <v>624</v>
+      </c>
+      <c r="F27" s="13">
+        <v>0.92177949382319446</v>
+      </c>
+      <c r="G27" s="14">
+        <v>168.48926117059352</v>
+      </c>
+      <c r="H27" s="10">
+        <v>5</v>
+      </c>
+      <c r="I27" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>1</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="12">
+        <v>28</v>
+      </c>
+      <c r="F28" s="13">
+        <v>4.819458994482523</v>
+      </c>
+      <c r="G28" s="14">
+        <v>1623532.4666199405</v>
+      </c>
+      <c r="H28" s="10">
+        <v>3</v>
+      </c>
+      <c r="I28" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>1</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="6">
-        <v>576</v>
-      </c>
-      <c r="G2" s="9">
-        <v>1.6278196387318138</v>
-      </c>
-      <c r="H2" s="5">
-        <v>2087282.1552937152</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="D29" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="12">
+        <v>1830</v>
+      </c>
+      <c r="F29" s="13">
+        <v>0.26010121047192036</v>
+      </c>
+      <c r="G29" s="14">
+        <v>39.434643534151753</v>
+      </c>
+      <c r="H29" s="10">
+        <v>1</v>
+      </c>
+      <c r="I29" s="10">
         <v>3</v>
       </c>
-      <c r="J2" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>1</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="10">
+        <v>23</v>
+      </c>
+      <c r="F30" s="13">
+        <v>1.1496900605005875</v>
+      </c>
+      <c r="G30" s="14">
+        <v>61220.64852115501</v>
+      </c>
+      <c r="H30" s="10">
+        <v>4</v>
+      </c>
+      <c r="I30" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>1</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="12">
+        <v>45</v>
+      </c>
+      <c r="F31" s="13">
+        <v>19.359239841281244</v>
+      </c>
+      <c r="G31" s="14">
+        <v>116615.41965520391</v>
+      </c>
+      <c r="H31" s="10">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="2">
-        <v>11</v>
-      </c>
-      <c r="G3" s="9">
-        <v>1.2581054540850005</v>
-      </c>
-      <c r="H3" s="5">
-        <v>547.48769225846445</v>
-      </c>
-      <c r="I3" s="2">
-        <v>6</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="6">
-        <v>5488</v>
-      </c>
-      <c r="G4" s="9">
-        <v>19.359239841281244</v>
-      </c>
-      <c r="H4" s="12">
-        <v>190292.44749432051</v>
-      </c>
-      <c r="I4" s="2">
-        <v>3</v>
-      </c>
-      <c r="J4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="6">
-        <v>13</v>
-      </c>
-      <c r="G5" s="9">
-        <v>1.7790273640275014</v>
-      </c>
-      <c r="H5" s="5">
-        <v>16991.35747001816</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="6">
-        <v>20</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1.2581054540850005</v>
-      </c>
-      <c r="H6" s="5">
-        <v>165691.53429320332</v>
-      </c>
-      <c r="I6" s="2">
-        <v>3</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="6">
-        <v>31</v>
-      </c>
-      <c r="G7" s="9">
-        <v>1.344397990175465</v>
-      </c>
-      <c r="H7" s="5">
-        <v>8235.4710468978228</v>
-      </c>
-      <c r="I7" s="2">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="6">
-        <v>52</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1.6708715227994324</v>
-      </c>
-      <c r="H8" s="5">
-        <v>3963955.5316596483</v>
-      </c>
-      <c r="I8" s="2">
-        <v>3</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="6">
-        <v>7</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0.78435308805910964</v>
-      </c>
-      <c r="H9" s="5">
-        <v>2249.183019582937</v>
-      </c>
-      <c r="I9" s="2">
-        <v>5</v>
-      </c>
-      <c r="J9" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="2">
-        <v>95</v>
-      </c>
-      <c r="G10" s="9">
-        <v>216.54621737662529</v>
-      </c>
-      <c r="H10" s="5">
-        <v>16215973.791515743</v>
-      </c>
-      <c r="I10" s="2">
-        <v>3</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="6">
-        <v>115</v>
-      </c>
-      <c r="G11" s="9">
-        <v>21.299447386134773</v>
-      </c>
-      <c r="H11" s="5">
-        <v>325775.66857809632</v>
-      </c>
-      <c r="I11" s="2">
-        <v>4</v>
-      </c>
-      <c r="J11" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1186</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0.248529494536535</v>
-      </c>
-      <c r="H12" s="5">
-        <v>357.06339814683844</v>
-      </c>
-      <c r="I12" s="2">
-        <v>2</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="6">
-        <v>380</v>
-      </c>
-      <c r="G13" s="9">
-        <v>1.2581054540850005</v>
-      </c>
-      <c r="H13" s="5">
-        <v>87661.259262234264</v>
-      </c>
-      <c r="I13" s="2">
-        <v>2</v>
-      </c>
-      <c r="J13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="6">
-        <v>285</v>
-      </c>
-      <c r="G14" s="9">
-        <v>3.5904528499278299</v>
-      </c>
-      <c r="H14" s="5">
-        <v>12089034.749908645</v>
-      </c>
-      <c r="I14" s="2">
-        <v>2</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="6">
-        <v>2040</v>
-      </c>
-      <c r="G15" s="9">
-        <v>12.313176410983239</v>
-      </c>
-      <c r="H15" s="5">
-        <v>28689.751829313835</v>
-      </c>
-      <c r="I15" s="2">
-        <v>6</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="6">
-        <v>14</v>
-      </c>
-      <c r="G16" s="9">
-        <v>48.128585671910834</v>
-      </c>
-      <c r="H16" s="4">
-        <v>19671.661741774085</v>
-      </c>
-      <c r="I16" s="1">
-        <v>4</v>
-      </c>
-      <c r="J16" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="13">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="11">
-        <v>63</v>
-      </c>
-      <c r="G17" s="9">
-        <v>7.4900031183195228</v>
-      </c>
-      <c r="H17" s="5">
-        <v>17032516.326998692</v>
-      </c>
-      <c r="I17" s="2">
-        <v>3</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="13">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="2">
-        <v>13</v>
-      </c>
-      <c r="G18" s="9">
-        <v>1.2581054540850005</v>
-      </c>
-      <c r="H18" s="5">
-        <v>36317.200212839991</v>
-      </c>
-      <c r="I18" s="2">
-        <v>5</v>
-      </c>
-      <c r="J18" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="13">
-        <v>1</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="6">
-        <v>4393</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0.78435308805910964</v>
-      </c>
-      <c r="H19" s="5">
-        <v>31255.550710902706</v>
-      </c>
-      <c r="I19" s="2">
-        <v>4</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="2">
-        <v>440.3</v>
-      </c>
-      <c r="G20" s="9">
-        <v>1.1496900605005875</v>
-      </c>
-      <c r="H20" s="5">
-        <v>864625.4042493247</v>
-      </c>
-      <c r="I20" s="2">
-        <v>5</v>
-      </c>
-      <c r="J20" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="13">
-        <v>1</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="11">
-        <v>250</v>
-      </c>
-      <c r="G21" s="9">
-        <v>254.60902660160465</v>
-      </c>
-      <c r="H21" s="5">
-        <v>3533205.6138780504</v>
-      </c>
-      <c r="I21" s="3">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="13">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="2">
-        <v>103</v>
-      </c>
-      <c r="G22" s="9">
-        <v>1.2581054540850005</v>
-      </c>
-      <c r="H22" s="4">
-        <v>17964.950282769361</v>
-      </c>
-      <c r="I22" s="2">
-        <v>2</v>
-      </c>
-      <c r="J22" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="13">
-        <v>1</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="6">
-        <v>13</v>
-      </c>
-      <c r="G23" s="9">
-        <v>2.0230000000000001E-2</v>
-      </c>
-      <c r="H23" s="5">
-        <v>193.21521892743283</v>
-      </c>
-      <c r="I23" s="2">
-        <v>2</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="13">
-        <v>1</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="6">
-        <v>11484</v>
-      </c>
-      <c r="G24" s="9">
-        <v>21.299447386134773</v>
-      </c>
-      <c r="H24" s="5">
-        <v>9111068.3478771001</v>
-      </c>
-      <c r="I24" s="2">
-        <v>2</v>
-      </c>
-      <c r="J24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="13">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="6">
-        <v>566</v>
-      </c>
-      <c r="G25" s="9">
-        <v>1.2581054540850005</v>
-      </c>
-      <c r="H25" s="5">
-        <v>284844.82375269063</v>
-      </c>
-      <c r="I25" s="2">
-        <v>3</v>
-      </c>
-      <c r="J25" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="13">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="2">
-        <v>437</v>
-      </c>
-      <c r="G26" s="9">
-        <v>21.299447386134773</v>
-      </c>
-      <c r="H26" s="5">
-        <v>10246902.750900846</v>
-      </c>
-      <c r="I26" s="2">
-        <v>3</v>
-      </c>
-      <c r="J26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="13">
-        <v>1</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="6">
-        <v>624</v>
-      </c>
-      <c r="G27" s="9">
-        <v>0.92177949382319446</v>
-      </c>
-      <c r="H27" s="5">
-        <v>168.48926117059352</v>
-      </c>
-      <c r="I27" s="2">
-        <v>5</v>
-      </c>
-      <c r="J27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2">
-        <v>1</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="6">
-        <v>28</v>
-      </c>
-      <c r="G28" s="9">
-        <v>4.819458994482523</v>
-      </c>
-      <c r="H28" s="5">
-        <v>1623532.4666199405</v>
-      </c>
-      <c r="I28" s="2">
-        <v>3</v>
-      </c>
-      <c r="J28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="13">
-        <v>1</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="6">
-        <v>1830</v>
-      </c>
-      <c r="G29" s="9">
-        <v>0.26010121047192036</v>
-      </c>
-      <c r="H29" s="5">
-        <v>39.434643534151753</v>
-      </c>
-      <c r="I29" s="2">
-        <v>1</v>
-      </c>
-      <c r="J29" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="13">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" s="2">
-        <v>23</v>
-      </c>
-      <c r="G30" s="9">
-        <v>1.1496900605005875</v>
-      </c>
-      <c r="H30" s="5">
-        <v>61220.64852115501</v>
-      </c>
-      <c r="I30" s="2">
-        <v>4</v>
-      </c>
-      <c r="J30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2">
-        <v>1</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="11">
-        <v>45</v>
-      </c>
-      <c r="G31" s="9">
-        <v>19.359239841281244</v>
-      </c>
-      <c r="H31" s="5">
-        <v>116615.41965520391</v>
-      </c>
-      <c r="I31" s="2">
-        <v>3</v>
-      </c>
-      <c r="J31" s="2">
+      <c r="I31" s="10">
         <v>1</v>
       </c>
     </row>

--- a/data/Afghanistan interventions.xlsx
+++ b/data/Afghanistan interventions.xlsx
@@ -207,9 +207,6 @@
     <t>Appendicitis: 0.3</t>
   </si>
   <si>
-    <t>Malaria: 0.8</t>
-  </si>
-  <si>
     <t>Other cardiovascular and circulatory diseases: 0.2</t>
   </si>
   <si>
@@ -289,6 +286,9 @@
   </si>
   <si>
     <t>First-level hospital</t>
+  </si>
+  <si>
+    <t>Malaria: 0.5</t>
   </si>
 </sst>
 </file>
@@ -1423,26 +1423,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1601,6 +1581,26 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1669,21 +1669,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I31" totalsRowShown="0" headerRowDxfId="10" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I31" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:I31"/>
   <sortState ref="A2:K31">
     <sortCondition ref="B1:B31"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="27" name="Active" dataDxfId="9"/>
-    <tableColumn id="3" name="Short name" dataDxfId="8"/>
-    <tableColumn id="4" name="Platform" dataDxfId="7"/>
-    <tableColumn id="5" name="Causes of burden (max coverage)" dataDxfId="6"/>
-    <tableColumn id="11" name="ICER" dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="12" name="Unit cost" dataDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="13" name="Spending" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="14" name="FRP" dataDxfId="2"/>
-    <tableColumn id="15" name="Equity" dataDxfId="1"/>
+    <tableColumn id="27" name="Active" dataDxfId="8"/>
+    <tableColumn id="3" name="Short name" dataDxfId="7"/>
+    <tableColumn id="4" name="Platform" dataDxfId="6"/>
+    <tableColumn id="5" name="Causes of burden (max coverage)" dataDxfId="5"/>
+    <tableColumn id="11" name="ICER" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="12" name="Unit cost" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="13" name="Spending" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="14" name="FRP" dataDxfId="1"/>
+    <tableColumn id="15" name="Equity" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1944,7 +1944,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1956,7 +1956,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="12">
         <v>576</v>
@@ -2039,7 +2039,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>42</v>
@@ -2068,10 +2068,10 @@
         <v>25</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="12">
         <v>5488</v>
@@ -2100,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E5" s="12">
         <v>13</v>
@@ -2126,10 +2126,10 @@
         <v>21</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="12">
         <v>20</v>
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="12">
         <v>31</v>
@@ -2184,10 +2184,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="12">
         <v>52</v>
@@ -2213,7 +2213,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>40</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="10">
         <v>95</v>
@@ -2271,10 +2271,10 @@
         <v>27</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="12">
         <v>115</v>
@@ -2303,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="10">
         <v>1186</v>
@@ -2329,10 +2329,10 @@
         <v>30</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="12">
         <v>380</v>
@@ -2361,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" s="12">
         <v>285</v>
@@ -2387,10 +2387,10 @@
         <v>18</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" s="12">
         <v>2040</v>
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="12">
         <v>14</v>
@@ -2445,10 +2445,10 @@
         <v>24</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="12">
         <v>63</v>
@@ -2474,10 +2474,10 @@
         <v>4</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="10">
         <v>13</v>
@@ -2503,10 +2503,10 @@
         <v>9</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" s="12">
         <v>4393</v>
@@ -2532,10 +2532,10 @@
         <v>29</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" s="10">
         <v>440.3</v>
@@ -2561,7 +2561,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>41</v>
@@ -2593,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" s="10">
         <v>103</v>
@@ -2622,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E23" s="12">
         <v>13</v>
@@ -2648,10 +2648,10 @@
         <v>17</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E24" s="12">
         <v>11484</v>
@@ -2677,10 +2677,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" s="12">
         <v>566</v>
@@ -2706,10 +2706,10 @@
         <v>19</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26" s="10">
         <v>437</v>
@@ -2735,10 +2735,10 @@
         <v>10</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" s="12">
         <v>624</v>
@@ -2764,10 +2764,10 @@
         <v>23</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28" s="12">
         <v>28</v>
@@ -2796,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" s="12">
         <v>1830</v>
@@ -2822,10 +2822,10 @@
         <v>22</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E30" s="10">
         <v>23</v>
@@ -2851,10 +2851,10 @@
         <v>8</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E31" s="12">
         <v>45</v>
